--- a/CVX_Kenya/Optimization/ Sens_Try.xlsx
+++ b/CVX_Kenya/Optimization/ Sens_Try.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
-  <si>
-    <t>Scenario</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+  <si>
+    <t>Intervention</t>
   </si>
   <si>
     <t>Unnamed: 2_level_0</t>
@@ -124,9 +124,6 @@
     <t>kton/FU</t>
   </si>
   <si>
-    <t>Pulping_machines</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -137,15 +134,6 @@
   </si>
   <si>
     <t>76</t>
-  </si>
-  <si>
-    <t>_450_109</t>
-  </si>
-  <si>
-    <t>Pulping_machines_450_109</t>
-  </si>
-  <si>
-    <t>1 M Ksh investment</t>
   </si>
 </sst>
 </file>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,83 +671,66 @@
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
+        <v>1.00000015925616</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.002327894559130073</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0004894310441159178</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.3085486581549048</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.05422328365966678</v>
+      </c>
+      <c r="O4">
+        <v>0.05236644484102726</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.03071292489767075</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.0006180771888466552</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.000918567329790676</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.0001950151054188609</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.06491394690237939</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.09720575390383601</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.00409148377366364</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.02389702278014738</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.005812877770949854</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>3.085681596654467</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.6071467834990472</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.4043350028805435</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.5277559321839362</v>
+      </c>
+      <c r="AC4">
+        <v>0.6107773305848241</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -768,7 +739,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="H5">
-        <v>-5161.780826014467</v>
+        <v>26.00000416021794</v>
       </c>
       <c r="K5">
         <v>0.002327894559130073</v>
@@ -779,20 +750,50 @@
       <c r="M5">
         <v>0.3085486581549048</v>
       </c>
+      <c r="N5">
+        <v>0.05422328365966678</v>
+      </c>
+      <c r="O5">
+        <v>0.05236644484102726</v>
+      </c>
       <c r="P5">
         <v>0.03071292489767075</v>
       </c>
       <c r="Q5">
-        <v>-3.190378511688323</v>
+        <v>0.01607000711373985</v>
       </c>
       <c r="R5">
-        <v>-4.741442460446706</v>
+        <v>0.02388275052726385</v>
       </c>
       <c r="S5">
-        <v>-1.006625300855376</v>
+        <v>0.005070393905043602</v>
+      </c>
+      <c r="T5">
+        <v>1.687762609450147</v>
       </c>
       <c r="U5">
-        <v>-501.7547172605991</v>
+        <v>2.527349605690688</v>
+      </c>
+      <c r="V5">
+        <v>0.1063785813748837</v>
+      </c>
+      <c r="W5">
+        <v>0.03934895270504057</v>
+      </c>
+      <c r="X5">
+        <v>0.02877706096842303</v>
+      </c>
+      <c r="Y5">
+        <v>3.090556975454092</v>
+      </c>
+      <c r="Z5">
+        <v>2.229995446046814</v>
+      </c>
+      <c r="AA5">
+        <v>2.834478854667395</v>
+      </c>
+      <c r="AB5">
+        <v>0.6300430297851562</v>
       </c>
       <c r="AC5">
         <v>0.6107773305848241</v>
@@ -804,7 +805,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="H6">
-        <v>-5136.780822015367</v>
+        <v>51.0000081602484</v>
       </c>
       <c r="K6">
         <v>0.002327894559130073</v>
@@ -815,20 +816,50 @@
       <c r="M6">
         <v>0.3085486581549048</v>
       </c>
+      <c r="N6">
+        <v>0.05422328365966678</v>
+      </c>
+      <c r="O6">
+        <v>0.05236644484102726</v>
+      </c>
       <c r="P6">
         <v>0.03071292489767075</v>
       </c>
       <c r="Q6">
-        <v>-3.174926581748878</v>
+        <v>0.03152193702408113</v>
       </c>
       <c r="R6">
-        <v>-4.718478277251052</v>
+        <v>0.04684693371382309</v>
       </c>
       <c r="S6">
-        <v>-1.001749922055751</v>
+        <v>0.009945772588253021</v>
+      </c>
+      <c r="T6">
+        <v>3.310611272230744</v>
       </c>
       <c r="U6">
-        <v>-499.3245734088123</v>
+        <v>4.95749345747754</v>
+      </c>
+      <c r="V6">
+        <v>0.208665678743273</v>
+      </c>
+      <c r="W6">
+        <v>0.05480088261538185</v>
+      </c>
+      <c r="X6">
+        <v>0.05174124415498227</v>
+      </c>
+      <c r="Y6">
+        <v>3.095432354137301</v>
+      </c>
+      <c r="Z6">
+        <v>3.852844108827412</v>
+      </c>
+      <c r="AA6">
+        <v>5.264622706454247</v>
+      </c>
+      <c r="AB6">
+        <v>0.7323301271535456</v>
       </c>
       <c r="AC6">
         <v>0.6107773305848241</v>
@@ -840,7 +871,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="H7">
-        <v>-5111.780818013474</v>
+        <v>76.00001216027886</v>
       </c>
       <c r="K7">
         <v>0.002327894559130073</v>
@@ -851,58 +882,52 @@
       <c r="M7">
         <v>0.3085486581549048</v>
       </c>
+      <c r="N7">
+        <v>0.05422328365966678</v>
+      </c>
+      <c r="O7">
+        <v>0.05236644484102726</v>
+      </c>
       <c r="P7">
         <v>0.03071292489767075</v>
       </c>
       <c r="Q7">
-        <v>-3.15947465186764</v>
+        <v>0.0469738669344224</v>
       </c>
       <c r="R7">
-        <v>-4.695514094059035</v>
+        <v>0.06981111690402031</v>
       </c>
       <c r="S7">
-        <v>-0.9968745433725417</v>
+        <v>0.01482115150429308</v>
+      </c>
+      <c r="T7">
+        <v>4.933459935244173</v>
       </c>
       <c r="U7">
-        <v>-496.8944295565598</v>
+        <v>7.387637309264392</v>
+      </c>
+      <c r="V7">
+        <v>0.310952776344493</v>
+      </c>
+      <c r="W7">
+        <v>0.07025281252572313</v>
+      </c>
+      <c r="X7">
+        <v>0.07470542734517949</v>
+      </c>
+      <c r="Y7">
+        <v>3.100307733053342</v>
+      </c>
+      <c r="Z7">
+        <v>5.475692771840841</v>
+      </c>
+      <c r="AA7">
+        <v>7.694766558241099</v>
+      </c>
+      <c r="AB7">
+        <v>0.8346172247547656</v>
       </c>
       <c r="AC7">
-        <v>0.6107773305848241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="H8">
-        <v>-5086.780814013444</v>
-      </c>
-      <c r="K8">
-        <v>0.002327894559130073</v>
-      </c>
-      <c r="L8">
-        <v>0.0004894310441159178</v>
-      </c>
-      <c r="M8">
-        <v>0.3085486581549048</v>
-      </c>
-      <c r="P8">
-        <v>0.03071292489767075</v>
-      </c>
-      <c r="Q8">
-        <v>-3.144022721942747</v>
-      </c>
-      <c r="R8">
-        <v>-4.672549910868838</v>
-      </c>
-      <c r="S8">
-        <v>-0.9919991646893322</v>
-      </c>
-      <c r="U8">
-        <v>-494.4642857047729</v>
-      </c>
-      <c r="AC8">
         <v>0.6107773305848241</v>
       </c>
     </row>
